--- a/Matlab_Code/Data/MODCOD.xlsx
+++ b/Matlab_Code/Data/MODCOD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/daniel_delrio_velilla_alumnos_upm_es/Documents/MUSE/S2/COM/Comunicaciones/Matlab_Code/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ACCD6CC-74A4-4CEE-A8E7-7B9A67CD5BED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{2ACCD6CC-74A4-4CEE-A8E7-7B9A67CD5BED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{07C9B6CB-9D2A-463A-8719-72093BB8E713}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9D32EC8A-2CC2-425E-8F39-ECBFAD6D2CB4}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{9D32EC8A-2CC2-425E-8F39-ECBFAD6D2CB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="5">
-        <v>13.08</v>
+        <v>12.08</v>
       </c>
       <c r="D7" s="5">
         <v>3.28</v>
